--- a/InputFiles/TC02_CDS_Filter_LibrarySource_Genomic.xlsx
+++ b/InputFiles/TC02_CDS_Filter_LibrarySource_Genomic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0620\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826E2516-AC82-4073-859B-AED4CC9D6BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA33AF14-4930-449B-AEC9-C36FA21A6D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>

--- a/InputFiles/TC02_CDS_Filter_LibrarySource_Genomic.xlsx
+++ b/InputFiles/TC02_CDS_Filter_LibrarySource_Genomic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0620\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0717new\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA33AF14-4930-449B-AEC9-C36FA21A6D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B33A77-EA19-4147-B778-6991112FADA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -57,28 +57,6 @@
     <t>ParticipantsTab</t>
   </si>
   <si>
-    <t>TC01_CDS_Filter_LibrarySource_BulkWholeCell_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC01_CDS_Filter_LibrarySource_BulkWholeCell_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)
- MATCH (g:genomic_info)
-MATCH (g)--&gt;(f:file)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
-WHERE g.library_source in ['Genomic']
-MATCH (samp:sample)-[*]-&gt;(p)
-WITH p,s,collect(distinct(samp.sample_id)) as samp
-RETURN 
-    coalesce(p.participant_id,'') as `Participant ID`,
-    coalesce(s.study_name, '') as `Study Name`,
-    coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.gender,'') as `Gender`,
-    coalesce(apoc.text.join(samp, ','), '') as `Samples`
-ORDER BY `Participant ID`
-//LIMIT 100</t>
-  </si>
-  <si>
     <t>MATCH (g:genomic_info)
 WHERE g.library_source in ["Genomic"]
 MATCH (g)--&gt;(f:file)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
@@ -118,6 +96,28 @@
     count(distinct p) AS Participants,
     count(distinct samp) AS Samples,
     count(distinct f) AS `Files`</t>
+  </si>
+  <si>
+    <t>TC02_CDS_Filter_LibrarySource_Genomic_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC02_CDS_Filter_LibrarySource_Genomic_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)
+ MATCH (g:genomic_info)
+MATCH (g)--&gt;(f:file)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
+WHERE g.library_source in ['Genomic']
+MATCH (samp:sample)-[*]-&gt;(p)
+WITH p,s,collect(distinct(samp.sample_id)) as samp
+RETURN 
+    coalesce(p.participant_id,'') as `Participant ID`,
+    coalesce(s.study_name, '') as `Study Name`,
+    coalesce(s.phs_accession,'') as `Accession`,
+    coalesce(p.gender,'') as `Gender`,
+    coalesce(apoc.text.join(samp, ','), '') as `Samples`
+ORDER BY `Participant ID`
+LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,9 +176,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -500,91 +498,92 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="75.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="378" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="315" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
